--- a/input_test/MEP_example.xlsx
+++ b/input_test/MEP_example.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\psaa_\Desktop\GRASP-SysBioEng-patch-1\GRASP-SysBioEng-patch-1\input_test\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nicow/Documents/GRASP/input_test/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1BCF8C5-C8B5-448F-AA0D-FAFA765B94F9}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EA6229E-7696-B448-9AEB-4F79F3335913}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8778" tabRatio="989" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="23040" windowHeight="8780" tabRatio="989" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="general" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="147">
   <si>
     <t>General Reaction and Sampling Platform (GRASP)</t>
   </si>
@@ -475,6 +475,9 @@
   </si>
   <si>
     <t>Fixed drain</t>
+  </si>
+  <si>
+    <t>Isoenzymes</t>
   </si>
 </sst>
 </file>
@@ -563,7 +566,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -586,11 +589,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -639,6 +653,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1028,20 +1045,20 @@
       <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="69.41796875"/>
-    <col min="2" max="2" width="29.47265625"/>
-    <col min="3" max="1025" width="8.578125"/>
+    <col min="1" max="1" width="69.5"/>
+    <col min="2" max="2" width="29.5"/>
+    <col min="3" max="1025" width="8.5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="16"/>
     </row>
-    <row r="2" spans="1:2" ht="15" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1049,7 +1066,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="15" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>3</v>
       </c>
@@ -1057,7 +1074,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="15" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
@@ -1065,7 +1082,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="15" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>7</v>
       </c>
@@ -1073,7 +1090,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="15" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
@@ -1081,7 +1098,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="15" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>9</v>
       </c>
@@ -1089,7 +1106,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="15" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>10</v>
       </c>
@@ -1097,7 +1114,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="15" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>11</v>
       </c>
@@ -1105,13 +1122,13 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="30" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
         <v>12</v>
       </c>
       <c r="B10" s="7"/>
     </row>
-    <row r="11" spans="1:2" ht="15" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>13</v>
       </c>
@@ -1119,7 +1136,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>14</v>
       </c>
@@ -1127,13 +1144,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="15" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
         <v>15</v>
       </c>
       <c r="B13" s="4"/>
     </row>
-    <row r="14" spans="1:2" ht="15" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>16</v>
       </c>
@@ -1156,12 +1173,12 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1025" width="8.578125"/>
+    <col min="1" max="1025" width="8.5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="10" t="s">
         <v>107</v>
       </c>
@@ -1178,7 +1195,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
         <v>44</v>
       </c>
@@ -1195,7 +1212,7 @@
         <v>0.16696109937825601</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
         <v>49</v>
       </c>
@@ -1212,7 +1229,7 @@
         <v>2.0295624220812498</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="10" t="s">
         <v>98</v>
       </c>
@@ -1229,7 +1246,7 @@
         <v>5.2506020463205599E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>56</v>
       </c>
@@ -1258,12 +1275,12 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1025" width="8.578125"/>
+    <col min="1" max="1025" width="8.5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="10" t="s">
         <v>112</v>
       </c>
@@ -1277,7 +1294,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
         <v>43</v>
       </c>
@@ -1291,7 +1308,7 @@
         <v>1.01</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
         <v>44</v>
       </c>
@@ -1305,7 +1322,7 @@
         <v>1.01</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="10" t="s">
         <v>45</v>
       </c>
@@ -1319,7 +1336,7 @@
         <v>1.01</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="10" t="s">
         <v>46</v>
       </c>
@@ -1333,7 +1350,7 @@
         <v>1.01</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="10" t="s">
         <v>47</v>
       </c>
@@ -1347,7 +1364,7 @@
         <v>1.01</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="10" t="s">
         <v>48</v>
       </c>
@@ -1361,7 +1378,7 @@
         <v>1.01</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="10" t="s">
         <v>49</v>
       </c>
@@ -1375,7 +1392,7 @@
         <v>1.01</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="10" t="s">
         <v>50</v>
       </c>
@@ -1389,7 +1406,7 @@
         <v>1.01</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="10" t="s">
         <v>51</v>
       </c>
@@ -1403,7 +1420,7 @@
         <v>1.01</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="10" t="s">
         <v>52</v>
       </c>
@@ -1417,7 +1434,7 @@
         <v>1.01</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>53</v>
       </c>
@@ -1431,7 +1448,7 @@
         <v>1.01</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>54</v>
       </c>
@@ -1445,7 +1462,7 @@
         <v>1.01</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>98</v>
       </c>
@@ -1459,7 +1476,7 @@
         <v>1.01</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>56</v>
       </c>
@@ -1483,16 +1500,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:D24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D24" sqref="D2:D24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1024" width="8.578125"/>
+    <col min="1" max="1024" width="8.5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="10" t="s">
         <v>116</v>
       </c>
@@ -1506,7 +1523,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
         <v>18</v>
       </c>
@@ -1520,7 +1537,7 @@
         <v>1.01</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
         <v>20</v>
       </c>
@@ -1534,7 +1551,7 @@
         <v>1.01</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="10" t="s">
         <v>21</v>
       </c>
@@ -1548,7 +1565,7 @@
         <v>1.01</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="10" t="s">
         <v>22</v>
       </c>
@@ -1562,7 +1579,7 @@
         <v>1.01</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="10" t="s">
         <v>23</v>
       </c>
@@ -1576,7 +1593,7 @@
         <v>1.01</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="10" t="s">
         <v>24</v>
       </c>
@@ -1590,7 +1607,7 @@
         <v>1.01</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="10" t="s">
         <v>26</v>
       </c>
@@ -1604,7 +1621,7 @@
         <v>1.01</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="10" t="s">
         <v>27</v>
       </c>
@@ -1618,7 +1635,7 @@
         <v>1.01</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="10" t="s">
         <v>28</v>
       </c>
@@ -1632,7 +1649,7 @@
         <v>1.01</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="10" t="s">
         <v>29</v>
       </c>
@@ -1646,7 +1663,7 @@
         <v>1.01</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="10" t="s">
         <v>30</v>
       </c>
@@ -1660,7 +1677,7 @@
         <v>1.01</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="10" t="s">
         <v>31</v>
       </c>
@@ -1674,7 +1691,7 @@
         <v>1.01</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="10" t="s">
         <v>32</v>
       </c>
@@ -1688,7 +1705,7 @@
         <v>1.01</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="10" t="s">
         <v>33</v>
       </c>
@@ -1702,7 +1719,7 @@
         <v>1.01</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="10" t="s">
         <v>34</v>
       </c>
@@ -1716,7 +1733,7 @@
         <v>1.01</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="10" t="s">
         <v>35</v>
       </c>
@@ -1730,7 +1747,7 @@
         <v>1.01</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="10" t="s">
         <v>36</v>
       </c>
@@ -1744,7 +1761,7 @@
         <v>1.01</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="10" t="s">
         <v>37</v>
       </c>
@@ -1758,7 +1775,7 @@
         <v>1.01</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="14" t="s">
         <v>38</v>
       </c>
@@ -1772,7 +1789,7 @@
         <v>1.01</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="14" t="s">
         <v>39</v>
       </c>
@@ -1786,7 +1803,7 @@
         <v>1.01</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="15" t="s">
         <v>40</v>
       </c>
@@ -1800,7 +1817,7 @@
         <v>1.01</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="14" t="s">
         <v>42</v>
       </c>
@@ -1814,7 +1831,7 @@
         <v>1.01</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" s="14" t="s">
         <v>41</v>
       </c>
@@ -1842,15 +1859,15 @@
       <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.1015625"/>
-    <col min="2" max="2" width="32.83984375"/>
+    <col min="1" max="1" width="15.1640625"/>
+    <col min="2" max="2" width="32.83203125"/>
     <col min="3" max="3" width="12"/>
-    <col min="4" max="1025" width="8.578125"/>
+    <col min="4" max="1025" width="8.5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="10" t="s">
         <v>117</v>
       </c>
@@ -1885,7 +1902,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="13" t="s">
         <v>43</v>
       </c>
@@ -1902,7 +1919,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="13" t="s">
         <v>44</v>
       </c>
@@ -1919,7 +1936,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="13" t="s">
         <v>45</v>
       </c>
@@ -1936,7 +1953,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="13" t="s">
         <v>46</v>
       </c>
@@ -1950,7 +1967,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="13" t="s">
         <v>47</v>
       </c>
@@ -1964,7 +1981,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="13" t="s">
         <v>48</v>
       </c>
@@ -1984,7 +2001,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="13" t="s">
         <v>49</v>
       </c>
@@ -2001,7 +2018,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="13" t="s">
         <v>50</v>
       </c>
@@ -2018,7 +2035,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="13" t="s">
         <v>51</v>
       </c>
@@ -2035,7 +2052,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="13" t="s">
         <v>52</v>
       </c>
@@ -2049,7 +2066,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>53</v>
       </c>
@@ -2063,7 +2080,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>54</v>
       </c>
@@ -2077,7 +2094,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>98</v>
       </c>
@@ -2094,7 +2111,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>56</v>
       </c>
@@ -2125,13 +2142,13 @@
       <selection activeCell="B1" sqref="B1:Z1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.15625" bestFit="1" customWidth="1"/>
-    <col min="2" max="1025" width="8.578125"/>
+    <col min="1" max="1" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="1025" width="8.5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A1" s="10" t="s">
         <v>17</v>
       </c>
@@ -2211,7 +2228,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
         <v>43</v>
       </c>
@@ -2291,7 +2308,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
         <v>44</v>
       </c>
@@ -2371,7 +2388,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A4" s="10" t="s">
         <v>45</v>
       </c>
@@ -2451,7 +2468,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="10" t="s">
         <v>46</v>
       </c>
@@ -2531,7 +2548,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A6" s="10" t="s">
         <v>47</v>
       </c>
@@ -2611,7 +2628,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A7" s="10" t="s">
         <v>48</v>
       </c>
@@ -2691,7 +2708,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A8" s="10" t="s">
         <v>49</v>
       </c>
@@ -2771,7 +2788,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A9" s="10" t="s">
         <v>50</v>
       </c>
@@ -2851,7 +2868,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A10" s="10" t="s">
         <v>51</v>
       </c>
@@ -2931,7 +2948,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A11" s="10" t="s">
         <v>52</v>
       </c>
@@ -3011,7 +3028,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>53</v>
       </c>
@@ -3091,7 +3108,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>54</v>
       </c>
@@ -3171,7 +3188,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>55</v>
       </c>
@@ -3251,7 +3268,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>56</v>
       </c>
@@ -3345,12 +3362,12 @@
       <selection activeCell="D2" sqref="D2:D26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1023" width="8.578125"/>
+    <col min="1" max="1023" width="8.5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="10" t="s">
         <v>57</v>
       </c>
@@ -3367,7 +3384,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
         <v>18</v>
       </c>
@@ -3384,7 +3401,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
         <v>19</v>
       </c>
@@ -3401,7 +3418,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="10" t="s">
         <v>20</v>
       </c>
@@ -3418,7 +3435,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="10" t="s">
         <v>21</v>
       </c>
@@ -3435,7 +3452,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="10" t="s">
         <v>22</v>
       </c>
@@ -3452,7 +3469,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="10" t="s">
         <v>23</v>
       </c>
@@ -3469,7 +3486,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="10" t="s">
         <v>24</v>
       </c>
@@ -3486,7 +3503,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="10" t="s">
         <v>25</v>
       </c>
@@ -3503,7 +3520,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="10" t="s">
         <v>26</v>
       </c>
@@ -3520,7 +3537,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="10" t="s">
         <v>27</v>
       </c>
@@ -3537,7 +3554,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="10" t="s">
         <v>28</v>
       </c>
@@ -3554,7 +3571,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="10" t="s">
         <v>29</v>
       </c>
@@ -3571,7 +3588,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="10" t="s">
         <v>30</v>
       </c>
@@ -3588,7 +3605,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="10" t="s">
         <v>31</v>
       </c>
@@ -3605,7 +3622,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="10" t="s">
         <v>32</v>
       </c>
@@ -3622,7 +3639,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="10" t="s">
         <v>33</v>
       </c>
@@ -3639,7 +3656,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="10" t="s">
         <v>34</v>
       </c>
@@ -3656,7 +3673,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>35</v>
       </c>
@@ -3673,7 +3690,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>36</v>
       </c>
@@ -3690,7 +3707,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>37</v>
       </c>
@@ -3707,7 +3724,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>38</v>
       </c>
@@ -3724,7 +3741,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>39</v>
       </c>
@@ -3741,7 +3758,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>40</v>
       </c>
@@ -3758,7 +3775,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>41</v>
       </c>
@@ -3775,7 +3792,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>42</v>
       </c>
@@ -3800,18 +3817,20 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1025" width="8.578125"/>
+    <col min="1" max="1025" width="8.5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="10" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="B1" s="10" t="s">
         <v>83</v>
@@ -3822,8 +3841,11 @@
       <c r="D1" s="10" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E1" s="17" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
         <v>43</v>
       </c>
@@ -3837,7 +3859,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
         <v>44</v>
       </c>
@@ -3851,7 +3873,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="10" t="s">
         <v>45</v>
       </c>
@@ -3865,7 +3887,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="10" t="s">
         <v>46</v>
       </c>
@@ -3879,7 +3901,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="10" t="s">
         <v>47</v>
       </c>
@@ -3893,7 +3915,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="10" t="s">
         <v>48</v>
       </c>
@@ -3907,7 +3929,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="10" t="s">
         <v>49</v>
       </c>
@@ -3921,7 +3943,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="10" t="s">
         <v>50</v>
       </c>
@@ -3935,7 +3957,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="10" t="s">
         <v>51</v>
       </c>
@@ -3949,7 +3971,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="10" t="s">
         <v>52</v>
       </c>
@@ -3963,7 +3985,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>53</v>
       </c>
@@ -3977,7 +3999,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>54</v>
       </c>
@@ -3991,7 +4013,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>98</v>
       </c>
@@ -4005,7 +4027,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>56</v>
       </c>
@@ -4031,82 +4053,82 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1025" width="8.578125"/>
+    <col min="1" max="1025" width="8.5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" s="10" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" s="10" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" s="10" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" s="10" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8" s="10" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9" s="10" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A10" s="10" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A11" s="10" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A12" s="10" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>56</v>
       </c>
@@ -4123,122 +4145,122 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1025" width="8.578125"/>
+    <col min="1" max="1025" width="8.5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" s="11" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" s="12" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" s="12" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" s="12" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" s="12" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" s="12" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" s="12" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8" s="12" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9" s="12" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A10" s="12" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A11" s="12" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A12" s="12" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A13" s="12" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A14" s="12" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A15" s="12" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A16" s="12" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" s="12" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" s="12" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19" s="12" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20" s="12" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A21" s="12" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A22" s="12" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A23" s="12" t="s">
         <v>42</v>
       </c>
@@ -4255,137 +4277,137 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1025" width="8.578125"/>
+    <col min="1" max="1025" width="8.5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" s="10" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" s="10" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" s="10" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" s="10" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8" s="10" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9" s="10" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A10" s="10" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A11" s="10" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A12" s="10" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A13" s="10" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A14" s="10" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A15" s="10" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A16" s="10" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" s="10" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" s="10" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19" s="10" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>42</v>
       </c>
@@ -4402,15 +4424,15 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.578125"/>
-    <col min="2" max="2" width="15.734375"/>
-    <col min="3" max="3" width="16.05078125"/>
-    <col min="4" max="1025" width="8.578125"/>
+    <col min="1" max="1" width="8.5"/>
+    <col min="2" max="2" width="15.6640625"/>
+    <col min="3" max="3" width="16"/>
+    <col min="4" max="1025" width="8.5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="10" t="s">
         <v>102</v>
       </c>
@@ -4421,7 +4443,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
         <v>43</v>
       </c>
@@ -4432,7 +4454,7 @@
         <v>-31.817378113300499</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
         <v>44</v>
       </c>
@@ -4443,7 +4465,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="10" t="s">
         <v>45</v>
       </c>
@@ -4454,7 +4476,7 @@
         <v>-24.554259354343301</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="10" t="s">
         <v>46</v>
       </c>
@@ -4465,7 +4487,7 @@
         <v>6.3299632501736802</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="10" t="s">
         <v>47</v>
       </c>
@@ -4476,7 +4498,7 @@
         <v>-17.5895614431385</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="10" t="s">
         <v>48</v>
       </c>
@@ -4487,7 +4509,7 @@
         <v>1.11098730156556E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="10" t="s">
         <v>49</v>
       </c>
@@ -4498,7 +4520,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="10" t="s">
         <v>50</v>
       </c>
@@ -4509,7 +4531,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="10" t="s">
         <v>51</v>
       </c>
@@ -4520,7 +4542,7 @@
         <v>19.5215</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="10" t="s">
         <v>52</v>
       </c>
@@ -4531,7 +4553,7 @@
         <v>-80.192778581043697</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>53</v>
       </c>
@@ -4542,7 +4564,7 @@
         <v>-0.80383754398681695</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>54</v>
       </c>
@@ -4553,7 +4575,7 @@
         <v>-11.7822021194985</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>98</v>
       </c>
@@ -4564,7 +4586,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>56</v>
       </c>
@@ -4589,12 +4611,12 @@
       <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1025" width="8.578125"/>
+    <col min="1" max="1025" width="8.5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>101</v>
       </c>
@@ -4605,7 +4627,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>18</v>
       </c>
@@ -4616,7 +4638,7 @@
         <v>2.8050647744704302E-6</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>19</v>
       </c>
@@ -4627,7 +4649,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>20</v>
       </c>
@@ -4638,7 +4660,7 @@
         <v>1.5987048929337001E-4</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>21</v>
       </c>
@@ -4649,7 +4671,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>22</v>
       </c>
@@ -4660,7 +4682,7 @@
         <v>1.13532036945575E-4</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>23</v>
       </c>
@@ -4671,7 +4693,7 @@
         <v>1.3200000000000001E-4</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>24</v>
       </c>
@@ -4682,7 +4704,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>25</v>
       </c>
@@ -4693,7 +4715,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>26</v>
       </c>
@@ -4704,7 +4726,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>27</v>
       </c>
@@ -4715,7 +4737,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>28</v>
       </c>
@@ -4726,7 +4748,7 @@
         <v>6.7181160404188E-6</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>29</v>
       </c>
@@ -4737,7 +4759,7 @@
         <v>3.49E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>30</v>
       </c>
@@ -4748,7 +4770,7 @@
         <v>6.9399999999999996E-4</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>31</v>
       </c>
@@ -4759,7 +4781,7 @@
         <v>1.3875000000000001E-6</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>32</v>
       </c>
@@ -4770,7 +4792,7 @@
         <v>7.5000000000000002E-4</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>33</v>
       </c>
@@ -4781,7 +4803,7 @@
         <v>5.5500000000000002E-6</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>34</v>
       </c>
@@ -4792,7 +4814,7 @@
         <v>1.17E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>35</v>
       </c>
@@ -4803,7 +4825,7 @@
         <v>2.2499999999999999E-4</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>36</v>
       </c>
@@ -4814,7 +4836,7 @@
         <v>5.0994390047020904E-4</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>37</v>
       </c>
@@ -4825,7 +4847,7 @@
         <v>3.76182698457178E-6</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>38</v>
       </c>
@@ -4836,7 +4858,7 @@
         <v>1.21547050601745E-4</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>39</v>
       </c>
@@ -4847,7 +4869,7 @@
         <v>1.21547050601745E-4</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>40</v>
       </c>
@@ -4858,7 +4880,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>41</v>
       </c>
@@ -4869,7 +4891,7 @@
         <v>7.1199999999999996E-5</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>42</v>
       </c>
